--- a/Sprint/ProductBacklog/scrumtool_ingevulde_PB.xlsx
+++ b/Sprint/ProductBacklog/scrumtool_ingevulde_PB.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20025" windowHeight="8445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20025" windowHeight="8445" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PB" sheetId="1" r:id="rId1"/>
     <sheet name="SP1" sheetId="2" r:id="rId2"/>
     <sheet name="SP2" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>Sprint 2 Backlog</t>
+  </si>
+  <si>
+    <t>Dummy-database maken</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -728,6 +734,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -849,6 +858,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -908,6 +920,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -967,6 +982,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1026,6 +1044,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1085,6 +1106,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1144,6 +1168,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2631,7 +2658,7 @@
           <a:pPr>
             <a:defRPr sz="900"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4292,7 +4319,7 @@
           <a:pPr>
             <a:defRPr sz="900"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4344,9 +4371,12 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SP2'!$C$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>'SP2'!#REF!</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#REF!</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4386,6 +4416,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4400,9 +4433,12 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SP2'!$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>'SP2'!#REF!</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#REF!</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4442,6 +4478,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4459,6 +4498,9 @@
               <c:f>'SP2'!$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4498,6 +4540,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4512,9 +4557,12 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SP2'!$C$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>'SP2'!#REF!</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#REF!</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4554,6 +4602,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4568,9 +4619,12 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SP2'!$C$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>'SP2'!#REF!</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#REF!</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4610,6 +4664,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4624,9 +4681,12 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SP2'!$C$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>'SP2'!#REF!</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#REF!</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4666,6 +4726,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4680,9 +4743,12 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SP2'!$C$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>'SP2'!#REF!</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#REF!</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4722,6 +4788,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4736,9 +4805,12 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SP2'!$C$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>'SP2'!#REF!</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#REF!</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4778,6 +4850,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4792,9 +4867,12 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'SP2'!$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>'SP2'!#REF!</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#REF!</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4834,6 +4912,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4851,6 +4932,9 @@
               <c:f>'SP2'!$C$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>-</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -4890,6 +4974,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5866,7 +5953,7 @@
           <a:pPr>
             <a:defRPr sz="900"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6335,11 +6422,11 @@
   </sheetPr>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6430,7 +6517,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="14">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
@@ -6514,7 +6601,9 @@
         <v>5</v>
       </c>
       <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="G9" s="17">
+        <v>4</v>
+      </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
@@ -6545,6 +6634,9 @@
       <c r="D11" s="1">
         <v>7</v>
       </c>
+      <c r="G11" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="19" t="s">
@@ -6553,6 +6645,9 @@
       <c r="D12" s="1">
         <v>8</v>
       </c>
+      <c r="G12" s="18">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
@@ -6561,6 +6656,9 @@
       <c r="D13" s="1">
         <v>9</v>
       </c>
+      <c r="G13" s="18">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
@@ -6569,6 +6667,9 @@
       <c r="D14" s="1">
         <v>10</v>
       </c>
+      <c r="G14" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
@@ -6577,6 +6678,9 @@
       <c r="D15" s="1">
         <v>11</v>
       </c>
+      <c r="G15" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
@@ -6584,6 +6688,9 @@
       </c>
       <c r="D16" s="1">
         <v>12</v>
+      </c>
+      <c r="G16" s="18">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -7072,13 +7179,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7161,7 +7268,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="13">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -7171,29 +7278,57 @@
       <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D5"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
+      <c r="B5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17">
+        <v>2</v>
+      </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D6"/>
+      <c r="B6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="F6" s="17">
+        <v>1</v>
+      </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D7" s="20"/>
+      <c r="B7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="F7" s="17">
+        <v>4</v>
+      </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
@@ -7201,51 +7336,126 @@
       <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D8" s="20"/>
+      <c r="B8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="F8" s="18">
+        <v>2</v>
+      </c>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
       <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D9" s="20"/>
+      <c r="B9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="F9" s="18">
+        <v>3</v>
+      </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="B10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="18">
+        <v>3</v>
+      </c>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="F11" s="18">
+        <v>1</v>
+      </c>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="F12" s="18">
+        <v>2</v>
+      </c>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="18">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Sprint/ProductBacklog/scrumtool_ingevulde_PB.xlsx
+++ b/Sprint/ProductBacklog/scrumtool_ingevulde_PB.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20025" windowHeight="8445" activeTab="2"/>
@@ -2658,7 +2658,7 @@
           <a:pPr>
             <a:defRPr sz="900"/>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4319,7 +4319,7 @@
           <a:pPr>
             <a:defRPr sz="900"/>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4419,6 +4419,21 @@
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4480,6 +4495,21 @@
                 <c:ptCount val="7"/>
                 <c:pt idx="1">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5953,7 +5983,7 @@
           <a:pPr>
             <a:defRPr sz="900"/>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7185,7 +7215,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7291,10 +7321,21 @@
       <c r="F5" s="17">
         <v>2</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
+      <c r="G5" s="18">
+        <v>2</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
@@ -7310,10 +7351,21 @@
       <c r="F6" s="17">
         <v>1</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="G6" s="18">
+        <v>1</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0</v>
+      </c>
+      <c r="K6" s="17">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
